--- a/data/trans_dic/P5_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de terraza en su vivienda</t>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>37,14%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,28; 38,78</t>
+          <t>24,7; 46,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 45,17</t>
+          <t>28,79; 47,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,53; 37,17</t>
+          <t>26,66; 44,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,16; 39,91</t>
+          <t>28,17; 45,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,75; 36,47</t>
+          <t>28,09; 42,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,75; 40,13</t>
+          <t>30,37; 43,02</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 46,85</t>
+          <t>32,16; 44,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,86; 45,6</t>
+          <t>33,69; 46,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,34; 42,42</t>
+          <t>33,18; 44,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,91; 45,17</t>
+          <t>35,46; 46,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,58; 43,23</t>
+          <t>34,1; 42,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,88; 44,1</t>
+          <t>36,13; 44,11</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,43; 54,7</t>
+          <t>42,17; 57,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,43; 54,06</t>
+          <t>41,47; 55,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,64; 42,5</t>
+          <t>31,88; 44,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,8; 41,05</t>
+          <t>32,0; 43,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,38; 47,53</t>
+          <t>37,75; 47,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,89; 46,77</t>
+          <t>38,39; 46,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>39,82%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 45,37</t>
+          <t>39,37; 47,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,74; 45,67</t>
+          <t>38,06; 48,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,5; 39,36</t>
+          <t>32,99; 39,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,89; 40,42</t>
+          <t>32,48; 40,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,77; 41,7</t>
+          <t>37,18; 42,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,72; 42,4</t>
+          <t>36,65; 43,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42,52%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42,6%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36,95%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 45,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 45,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34,7; 39,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35,19; 40,35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37,78; 41,59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38,13; 42,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>80613</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>128833</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>94048</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>153748</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>174661</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>282581</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>55949; 104902</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97653; 162282</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69758; 116197</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>118792; 190441</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>137131; 206384</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>231117; 327312</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>249966</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>367887</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>276834</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>407124</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>526800</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>775011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>209289; 288880</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>314171; 430208</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>237236; 317139</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>354583; 460732</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>465726; 584516</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>698260; 852441</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>222705</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>345295</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>197269</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>286746</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>419975</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>632041</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>192141; 260096</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>296755; 397572</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>169512; 233922</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>246132; 331099</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>372697; 465247</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>570006; 693132</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>912593</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>625336</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>761288</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>513694</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1673881</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1139029</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>832464; 999891</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>554580; 708144</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>689359; 826463</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>455801; 572463</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1563004; 1787755</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1048422; 1235621</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>581.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>505.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>585.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1166.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1016.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1465878</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1467350</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1329440</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1361312</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2795317</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2828662</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1365813; 1573536</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1351079; 1577886</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1248501; 1418894</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1264954; 1450482</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2661662; 2930443</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2683954; 2984786</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>